--- a/biology/Histoire de la zoologie et de la botanique/Charles_Thomine_des_Mazures/Charles_Thomine_des_Mazures.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Thomine_des_Mazures/Charles_Thomine_des_Mazures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Thomine des Mazures ou Desmazures, né le 26 septembre 1798 au manoir d'Aspremont à Audrieu et mort le 19 juin 1824 à Caen (Calvados), est un avocat, universitaire et botaniste normand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les traces de son père, Pierre Jacques Henri Thomine Desmazures (1763-1847) alors doyen de la faculté de droit de l'université de Caen, Charles Thomine des Mazures commence sa carrière comme juriste en s'inscrivant après une licence de droit comme avocat au barreau de Caen. Ses frères étaient Pierre Thomine Desmazures et Léon Thomine Desmazures.
 Sa curiosité naturelle et ses connaissances variées l'amènent rapidement à l'étude de disciplines non juridiques ; il fait ainsi porter ses travaux sur la littérature espagnole, l'histoire des monastères bas-normand, l'archéologie et la botanique.
@@ -548,7 +562,9 @@
           <t>Œuvre de Charles Thomine des Mazures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la Poésie lyrique en France, Caen, Chez A. Le Roy, imprimeur du Roi, rue Notre-Dame, In-4, 16 p., 1820.</t>
         </is>
